--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44958</v>
+        <v>45108</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>29768</v>
+        <v>29921</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44958</v>
+        <v>45108</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>29738</v>
+        <v>29891</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44927</v>
+        <v>45078</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -860,22 +860,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D10" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>29952</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>29738</v>
+        <v>29860</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D12" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D14" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,13 +1094,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44986</v>
+        <v>45108</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>29801</v>
+        <v>29921</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D16" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D17" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>29768</v>
+        <v>29860</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1451,16 +1451,16 @@
         <v>500</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D24" t="n">
         <v>500</v>
@@ -1499,13 +1499,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>29768</v>
+        <v>29891</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>29830</v>
+        <v>29952</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1580,22 +1580,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D26" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44958</v>
+        <v>45108</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1625,22 +1625,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D27" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>29952</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44958</v>
+        <v>45108</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D28" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44958</v>
+        <v>45078</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45019</v>
+        <v>45139</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,10 +596,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>29952</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D10" t="n">
         <v>479</v>
@@ -869,7 +869,7 @@
         <v>29952</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
@@ -911,10 +911,10 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>29952</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,7 +1004,7 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>29952</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D17" t="n">
         <v>390</v>
@@ -1184,7 +1184,7 @@
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
@@ -1271,10 +1271,10 @@
         <v>394</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
@@ -1361,10 +1361,10 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>29952</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D24" t="n">
         <v>500</v>
@@ -1499,7 +1499,7 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>29952</v>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D28" t="n">
         <v>363</v>
@@ -1679,7 +1679,7 @@
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>29891</v>
+        <v>29952</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45139</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -860,22 +860,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D12" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D14" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,13 +1094,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D16" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D17" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>29860</v>
+        <v>29983</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45047</v>
+        <v>45170</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>500</v>
+        <v>216</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>29952</v>
+        <v>35339</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D24" t="n">
         <v>500</v>
@@ -1499,13 +1499,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1580,22 +1580,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D26" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1625,22 +1625,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D28" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45108</v>
+        <v>45170</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -718,10 +718,10 @@
         <v>45200</v>
       </c>
       <c r="G2" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H2" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
@@ -744,10 +744,10 @@
         <v>500</v>
       </c>
       <c r="E3" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F3" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -773,16 +773,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F4" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G4" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H4" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -814,10 +814,10 @@
         <v>45200</v>
       </c>
       <c r="G5" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H5" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I5" t="s">
         <v>67</v>
@@ -837,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -846,13 +846,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G6" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H6" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I6" t="s">
         <v>65</v>
@@ -884,10 +884,10 @@
         <v>45139</v>
       </c>
       <c r="G7" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H7" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I7" t="s">
         <v>67</v>
@@ -910,19 +910,19 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E8" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F8" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G8" s="2">
         <v>32813</v>
       </c>
       <c r="H8" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I8" t="s">
         <v>67</v>
@@ -948,16 +948,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F9" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G9" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H9" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
@@ -980,19 +980,19 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E10" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F10" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G10" s="2">
         <v>30592</v>
       </c>
       <c r="H10" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I10" t="s">
         <v>67</v>
@@ -1024,10 +1024,10 @@
         <v>45170</v>
       </c>
       <c r="G11" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H11" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
@@ -1047,22 +1047,22 @@
         <v>48</v>
       </c>
       <c r="C12">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D12">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" s="2">
         <v>33939</v>
       </c>
       <c r="F12" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G12" s="2">
         <v>34578</v>
       </c>
       <c r="H12" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
@@ -1082,7 +1082,7 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1091,13 +1091,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G13" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H13" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I13" t="s">
         <v>65</v>
@@ -1120,7 +1120,7 @@
         <v>423</v>
       </c>
       <c r="D14">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E14" s="2">
         <v>32325</v>
@@ -1132,7 +1132,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
@@ -1164,10 +1164,10 @@
         <v>45170</v>
       </c>
       <c r="G15" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="H15" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I15" t="s">
         <v>65</v>
@@ -1187,22 +1187,22 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D16">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E16" s="2">
         <v>31382</v>
       </c>
       <c r="F16" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G16" s="2">
         <v>32813</v>
       </c>
       <c r="H16" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I16" t="s">
         <v>67</v>
@@ -1222,22 +1222,22 @@
         <v>53</v>
       </c>
       <c r="C17">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D17">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E17" s="2">
         <v>33970</v>
       </c>
       <c r="F17" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G17" s="2">
         <v>33298</v>
       </c>
       <c r="H17" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
@@ -1263,16 +1263,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F18" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G18" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H18" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -1295,19 +1295,19 @@
         <v>500</v>
       </c>
       <c r="D19">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E19" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F19" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G19" s="2">
         <v>33178</v>
       </c>
       <c r="H19" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I19" t="s">
         <v>67</v>
@@ -1327,7 +1327,7 @@
         <v>56</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D20">
         <v>500</v>
@@ -1336,13 +1336,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G20" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H20" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I20" t="s">
         <v>67</v>
@@ -1368,16 +1368,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F21" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G21" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H21" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I21" t="s">
         <v>67</v>
@@ -1400,7 +1400,7 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E22" s="2">
         <v>29983</v>
@@ -1412,7 +1412,7 @@
         <v>33725</v>
       </c>
       <c r="H22" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I22" t="s">
         <v>67</v>
@@ -1435,19 +1435,19 @@
         <v>500</v>
       </c>
       <c r="D23">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E23" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F23" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G23" s="2">
         <v>35339</v>
       </c>
       <c r="H23" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I23" t="s">
         <v>67</v>
@@ -1467,7 +1467,7 @@
         <v>60</v>
       </c>
       <c r="C24">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -1476,13 +1476,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G24" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H24" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I24" t="s">
         <v>65</v>
@@ -1508,16 +1508,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F25" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G25" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H25" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I25" t="s">
         <v>67</v>
@@ -1540,7 +1540,7 @@
         <v>454</v>
       </c>
       <c r="D26">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E26" s="2">
         <v>31413</v>
@@ -1552,7 +1552,7 @@
         <v>33178</v>
       </c>
       <c r="H26" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I26" t="s">
         <v>67</v>
@@ -1575,7 +1575,7 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E27" s="2">
         <v>30011</v>
@@ -1587,7 +1587,7 @@
         <v>32813</v>
       </c>
       <c r="H27" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I27" t="s">
         <v>67</v>
@@ -1607,22 +1607,22 @@
         <v>64</v>
       </c>
       <c r="C28">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D28">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E28" s="2">
         <v>34304</v>
       </c>
       <c r="F28" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G28" s="2">
         <v>34121</v>
       </c>
       <c r="H28" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I28" t="s">
         <v>65</v>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -706,7 +706,7 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -715,13 +715,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G2" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H2" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
@@ -744,10 +744,10 @@
         <v>500</v>
       </c>
       <c r="E3" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F3" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -773,16 +773,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F4" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G4" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H4" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -808,16 +808,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F5" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G5" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H5" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I5" t="s">
         <v>67</v>
@@ -837,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -846,13 +846,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G6" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H6" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I6" t="s">
         <v>65</v>
@@ -878,16 +878,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="F7" s="2">
-        <v>45139</v>
+        <v>45292</v>
       </c>
       <c r="G7" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H7" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I7" t="s">
         <v>67</v>
@@ -910,19 +910,19 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E8" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F8" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G8" s="2">
         <v>32813</v>
       </c>
       <c r="H8" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I8" t="s">
         <v>67</v>
@@ -948,16 +948,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F9" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G9" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H9" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I9" t="s">
         <v>67</v>
@@ -980,19 +980,19 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E10" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F10" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G10" s="2">
         <v>30592</v>
       </c>
       <c r="H10" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I10" t="s">
         <v>67</v>
@@ -1018,16 +1018,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="F11" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G11" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H11" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>
@@ -1047,22 +1047,22 @@
         <v>48</v>
       </c>
       <c r="C12">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D12">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E12" s="2">
         <v>33939</v>
       </c>
       <c r="F12" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G12" s="2">
         <v>34578</v>
       </c>
       <c r="H12" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
@@ -1082,7 +1082,7 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1091,13 +1091,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G13" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H13" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I13" t="s">
         <v>65</v>
@@ -1117,22 +1117,22 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D14">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E14" s="2">
         <v>32325</v>
       </c>
       <c r="F14" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G14" s="2">
         <v>33239</v>
       </c>
       <c r="H14" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I14" t="s">
         <v>67</v>
@@ -1152,7 +1152,7 @@
         <v>51</v>
       </c>
       <c r="C15">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D15">
         <v>500</v>
@@ -1161,13 +1161,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G15" s="2">
-        <v>30103</v>
+        <v>30165</v>
       </c>
       <c r="H15" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I15" t="s">
         <v>65</v>
@@ -1187,22 +1187,22 @@
         <v>52</v>
       </c>
       <c r="C16">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D16">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E16" s="2">
         <v>31382</v>
       </c>
       <c r="F16" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G16" s="2">
         <v>32813</v>
       </c>
       <c r="H16" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I16" t="s">
         <v>67</v>
@@ -1222,22 +1222,22 @@
         <v>53</v>
       </c>
       <c r="C17">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D17">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E17" s="2">
         <v>33970</v>
       </c>
       <c r="F17" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G17" s="2">
         <v>33298</v>
       </c>
       <c r="H17" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
@@ -1263,16 +1263,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F18" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G18" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H18" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -1295,19 +1295,19 @@
         <v>500</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E19" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F19" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G19" s="2">
         <v>33178</v>
       </c>
       <c r="H19" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I19" t="s">
         <v>67</v>
@@ -1327,7 +1327,7 @@
         <v>56</v>
       </c>
       <c r="C20">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D20">
         <v>500</v>
@@ -1336,13 +1336,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G20" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H20" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I20" t="s">
         <v>67</v>
@@ -1368,16 +1368,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F21" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G21" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H21" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I21" t="s">
         <v>67</v>
@@ -1400,19 +1400,19 @@
         <v>500</v>
       </c>
       <c r="D22">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E22" s="2">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="F22" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G22" s="2">
         <v>33725</v>
       </c>
       <c r="H22" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I22" t="s">
         <v>67</v>
@@ -1435,19 +1435,19 @@
         <v>500</v>
       </c>
       <c r="D23">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E23" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F23" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G23" s="2">
         <v>35339</v>
       </c>
       <c r="H23" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I23" t="s">
         <v>67</v>
@@ -1467,7 +1467,7 @@
         <v>60</v>
       </c>
       <c r="C24">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -1476,13 +1476,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G24" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H24" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I24" t="s">
         <v>65</v>
@@ -1508,16 +1508,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F25" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G25" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H25" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I25" t="s">
         <v>67</v>
@@ -1537,22 +1537,22 @@
         <v>62</v>
       </c>
       <c r="C26">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D26">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E26" s="2">
         <v>31413</v>
       </c>
       <c r="F26" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G26" s="2">
         <v>33178</v>
       </c>
       <c r="H26" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I26" t="s">
         <v>67</v>
@@ -1575,19 +1575,19 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E27" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F27" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G27" s="2">
         <v>32813</v>
       </c>
       <c r="H27" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I27" t="s">
         <v>67</v>
@@ -1607,22 +1607,22 @@
         <v>64</v>
       </c>
       <c r="C28">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D28">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E28" s="2">
         <v>34304</v>
       </c>
       <c r="F28" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G28" s="2">
         <v>34121</v>
       </c>
       <c r="H28" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I28" t="s">
         <v>65</v>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,7 +515,7 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30195</v>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,10 +596,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30195</v>
@@ -731,10 +731,10 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30195</v>
@@ -866,10 +866,10 @@
         <v>487</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
@@ -1271,10 +1271,10 @@
         <v>402</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D28" t="n">
         <v>371</v>
@@ -1679,7 +1679,7 @@
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -602,10 +602,10 @@
         <v>45352</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>45323</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30042</v>
+        <v>30164</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>428</v>
       </c>
       <c r="D14" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1055,7 +1055,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45352</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30165</v>
+        <v>30195</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>459</v>
       </c>
       <c r="D16" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
@@ -1145,7 +1145,7 @@
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D17" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D24" t="n">
         <v>500</v>
@@ -1499,13 +1499,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1580,22 +1580,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D26" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D28" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -518,10 +518,10 @@
         <v>45383</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
         <v>45352</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         <v>45383</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>45323</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -737,10 +737,10 @@
         <v>45352</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>30164</v>
@@ -785,7 +785,7 @@
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>45352</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>30195</v>
@@ -875,7 +875,7 @@
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
         <v>45352</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>377</v>
       </c>
       <c r="D12" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
@@ -965,7 +965,7 @@
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1007,10 +1007,10 @@
         <v>45352</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>428</v>
       </c>
       <c r="D14" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1055,7 +1055,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45352</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>459</v>
       </c>
       <c r="D16" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
@@ -1145,7 +1145,7 @@
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>376</v>
       </c>
       <c r="D17" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
@@ -1190,7 +1190,7 @@
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
         <v>45383</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>30195</v>
@@ -1280,7 +1280,7 @@
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1322,10 +1322,10 @@
         <v>45383</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>45352</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>30164</v>
@@ -1415,7 +1415,7 @@
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>30164</v>
@@ -1460,7 +1460,7 @@
         <v>35339</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1502,10 +1502,10 @@
         <v>45352</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>45383</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>460</v>
       </c>
       <c r="D26" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
@@ -1595,7 +1595,7 @@
         <v>33178</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>30195</v>
@@ -1640,7 +1640,7 @@
         <v>32813</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>365</v>
       </c>
       <c r="D28" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
@@ -1685,7 +1685,7 @@
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,7 +515,7 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30256</v>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,10 +596,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30256</v>
@@ -641,10 +641,10 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30256</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,7 +689,7 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30256</v>
@@ -731,10 +731,10 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30256</v>
@@ -776,10 +776,10 @@
         <v>416</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
@@ -821,10 +821,10 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30256</v>
@@ -866,10 +866,10 @@
         <v>489</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
@@ -911,10 +911,10 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30256</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D12" t="n">
         <v>358</v>
@@ -959,7 +959,7 @@
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D14" t="n">
         <v>402</v>
@@ -1049,7 +1049,7 @@
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>33239</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -1139,7 +1139,7 @@
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
@@ -1223,7 +1223,7 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>500</v>
+        <v>266</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>30195</v>
@@ -1232,7 +1232,7 @@
         <v>45383</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30256</v>
+        <v>37377</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>45446</v>
@@ -1271,10 +1271,10 @@
         <v>404</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
@@ -1406,10 +1406,10 @@
         <v>386</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
@@ -1451,10 +1451,10 @@
         <v>223</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35339</v>
@@ -1541,10 +1541,10 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30256</v>
@@ -1631,10 +1631,10 @@
         <v>416</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>32813</v>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D12" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>430</v>
       </c>
       <c r="D14" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1055,7 +1055,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45352</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D16" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D17" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>37377</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D24" t="n">
         <v>500</v>
@@ -1499,13 +1499,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>45413</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1580,22 +1580,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D26" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D28" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -518,10 +518,10 @@
         <v>45444</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -737,10 +737,10 @@
         <v>45444</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30592</v>
+        <v>30591</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
         <v>45413</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D12" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>430</v>
       </c>
       <c r="D14" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1052,10 +1052,10 @@
         <v>45413</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>33239</v>
+        <v>33238</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,13 +1094,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30286</v>
+        <v>30318</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>462</v>
       </c>
       <c r="D16" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
@@ -1142,10 +1142,10 @@
         <v>45413</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D17" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>33298</v>
+        <v>33297</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>37377</v>
+        <v>37376</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>33178</v>
+        <v>33177</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1502,10 +1502,10 @@
         <v>45444</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>462</v>
       </c>
       <c r="D26" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
@@ -1592,10 +1592,10 @@
         <v>45444</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>33178</v>
+        <v>33177</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>30256</v>
@@ -1637,10 +1637,10 @@
         <v>45444</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D28" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         <v>45505</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>30286</v>
@@ -782,10 +782,10 @@
         <v>45474</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>32812</v>
+        <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30591</v>
+        <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D12" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D14" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>33238</v>
+        <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45444</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30318</v>
+        <v>30348</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D16" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>32812</v>
+        <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D17" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>33297</v>
+        <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>37376</v>
+        <v>37377</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>33177</v>
+        <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1361,16 +1361,16 @@
         <v>500</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>500</v>
       </c>
       <c r="D22" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>30286</v>
@@ -1415,7 +1415,7 @@
         <v>33725</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D24" t="n">
         <v>500</v>
@@ -1499,13 +1499,13 @@
         <v>33239</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1580,22 +1580,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D26" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>33177</v>
+        <v>33178</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>32812</v>
+        <v>32813</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,22 +1670,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D28" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Long27_DataComp.xlsx
+++ b/Global_M2/Datasums/Long27_DataComp.xlsx
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,7 +1094,7 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30348</v>
@@ -1406,10 +1406,10 @@
         <v>390</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>33725</v>
